--- a/docs/テクノロジ対策(応用情報).xlsx
+++ b/docs/テクノロジ対策(応用情報).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -5401,7 +5401,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -9044,9 +9044,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B2:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -9187,7 +9185,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -9447,7 +9445,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -9705,7 +9705,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9796,9 +9796,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>

--- a/docs/テクノロジ対策(応用情報).xlsx
+++ b/docs/テクノロジ対策(応用情報).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\作業\branch\ipa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="923"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="462">
   <si>
     <t>特徴</t>
     <rPh sb="0" eb="2">
@@ -2244,6 +2244,114 @@
   <si>
     <t xml:space="preserve">流れ図において，分岐網羅を満たし，かつ，条件網羅を満たすテストデータの組はどれか。
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再編成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース中にレコードの追加や削除によって断片的な未使用領域が増加した場合や、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繋がりのあるのレコードが非連続的な領域に格納され、順次アクセスの効率が低下した場合に行われる処理です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>同じデータを連続した領域に配置するなど、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データを適切に再配置することで、アクセス効率が向上し速度の回復が望めます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE VIEWで定義されるビュー"GOODMAKER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAKER表からMAKER.STATUSが20を超える行を選択し、MNO，STATUS，AREA列を抜き出したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>またその次のSQL文は、ビュー"GOODMAKER"のAREA列が'TOKYO'ではない行を選択し、MNO，STATUS，AREA列を抜き出したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめるとビューを選択する時点で「MAKER.STATUSが20を超える行」が抽出，続くSQL文では「AREA列が'TOKYO'ではない行」が抽出されているので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つの条件を含むSQL文であれば同等な表を得ることができることがわかります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず伝送速度の単位がビットなので、フレーム長1,500バイトの単位を変換します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末AからA側ルータまでにデータを転送するのに要する時間は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレーム長＝1,500バイト×8＝12,000ビット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,000÷10Mビット＝0.0012秒＝1.2ミリ秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A側ルータではフレームの処理時間0.8ミリ秒が必要となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A側のルータからB側のルータへは中継回線(1.5Mビット／秒)を介して転送されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送に要する時間は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,000ビット÷1.5Mビット＝0.008秒＝8ミリ秒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B側ルータではフレームの処理時間0.8ミリ秒が必要となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B側ルータから端末Bへの転送には、端末Aからルータまでと同じ1.2ミリ秒を要します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端末Aから端末Bにデータを送信するのに要する時間は、上記の時間を合計して、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2＋0.8＋8＋0.8＋1.2＝12(ミリ秒)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2551,15 +2659,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2622,6 +2721,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2753,6 +2861,48 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="9716"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="12182476"/>
+          <a:ext cx="6115050" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5401,7 +5551,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5409,12 +5559,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" s="8" t="str">
@@ -5434,16 +5584,16 @@
       <c r="F4" s="3"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D7 &amp; "!A1","LINK")</f>
+        <f t="shared" ref="C7:C15" si="0">HYPERLINK("#" &amp; $D7 &amp; "!A1","LINK")</f>
         <v>LINK</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -5454,7 +5604,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D8 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5465,7 +5615,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D9 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -5476,7 +5626,7 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D10 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5487,7 +5637,7 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D11 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -5498,7 +5648,7 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D12 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5509,7 +5659,7 @@
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="8" t="str">
-        <f>HYPERLINK("#" &amp; $D13 &amp; "!A1","LINK")</f>
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -5519,22 +5669,22 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="47" t="str">
-        <f>HYPERLINK("#" &amp; $D14 &amp; "!A1","LINK")</f>
+      <c r="C14" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="45" t="s">
         <v>304</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="47" t="str">
-        <f>HYPERLINK("#" &amp; $D15 &amp; "!A1","LINK")</f>
+      <c r="C15" s="44" t="str">
+        <f t="shared" si="0"/>
         <v>LINK</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="45" t="s">
         <v>359</v>
       </c>
       <c r="E15" s="6"/>
@@ -5666,7 +5816,7 @@
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="46" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5754,7 +5904,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelCol="1"/>
@@ -5793,19 +5943,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="75">
-      <c r="A3" s="25">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="28">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25">
         <v>279</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -5817,8 +5967,8 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25">
         <v>344</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5830,8 +5980,8 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25">
         <v>422</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -5843,8 +5993,8 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
         <v>427</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -5856,19 +6006,19 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="37.5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -5880,8 +6030,8 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="37.5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -5893,8 +6043,8 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="37.5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -5906,8 +6056,8 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="27"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5919,19 +6069,19 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="131.25">
-      <c r="A13" s="25">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="22">
+        <v>3</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="26"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5943,8 +6093,8 @@
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -5956,8 +6106,8 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -5969,8 +6119,8 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -5982,19 +6132,19 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="56.25">
-      <c r="A18" s="25">
+      <c r="A18" s="22">
         <v>4</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -6006,8 +6156,8 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -6019,8 +6169,8 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -6032,8 +6182,8 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6045,19 +6195,19 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="131.25">
-      <c r="A23" s="25">
+      <c r="A23" s="22">
         <v>5</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="30">
+      <c r="A24" s="23"/>
+      <c r="B24" s="27">
         <v>40</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -6069,8 +6219,8 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="30">
+      <c r="A25" s="23"/>
+      <c r="B25" s="27">
         <v>50</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -6082,8 +6232,8 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26"/>
-      <c r="B26" s="30">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27">
         <v>60</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -6095,8 +6245,8 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="27"/>
-      <c r="B27" s="30">
+      <c r="A27" s="24"/>
+      <c r="B27" s="27">
         <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -6108,19 +6258,19 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="56.25">
-      <c r="A28" s="25">
+      <c r="A28" s="22">
         <v>6</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -6132,8 +6282,8 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -6145,8 +6295,8 @@
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -6158,8 +6308,8 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="27"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -6171,19 +6321,19 @@
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="93.75">
-      <c r="A33" s="25">
+      <c r="A33" s="22">
         <v>7</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="26"/>
-      <c r="B34" s="30" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -6195,8 +6345,8 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="26"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -6208,8 +6358,8 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="26"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -6221,8 +6371,8 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="27"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -6234,19 +6384,19 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="229.5" customHeight="1">
-      <c r="A38" s="25">
+      <c r="A38" s="22">
         <v>8</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="26"/>
-      <c r="B39" s="30">
+      <c r="A39" s="23"/>
+      <c r="B39" s="27">
         <v>543212345</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -6258,8 +6408,8 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="26"/>
-      <c r="B40" s="30">
+      <c r="A40" s="23"/>
+      <c r="B40" s="27">
         <v>5432112345</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -6271,8 +6421,8 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="26"/>
-      <c r="B41" s="30">
+      <c r="A41" s="23"/>
+      <c r="B41" s="27">
         <v>54321012345</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -6284,8 +6434,8 @@
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="27"/>
-      <c r="B42" s="30" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -6297,137 +6447,137 @@
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="56.25">
-      <c r="A43" s="25">
+      <c r="A43" s="22">
         <v>9</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="26"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="26"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="26"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="26"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="26"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="26"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="26"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="26"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="26"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="26"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="26"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="26"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="26"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="26"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="26"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
+      <c r="A59" s="23"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="26"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="26"/>
-      <c r="B61" s="30">
+      <c r="A61" s="23"/>
+      <c r="B61" s="27">
         <v>3</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -6439,8 +6589,8 @@
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="26"/>
-      <c r="B62" s="30">
+      <c r="A62" s="23"/>
+      <c r="B62" s="27">
         <v>6</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -6452,8 +6602,8 @@
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="26"/>
-      <c r="B63" s="30">
+      <c r="A63" s="23"/>
+      <c r="B63" s="27">
         <v>8</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -6465,8 +6615,8 @@
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="27"/>
-      <c r="B64" s="30">
+      <c r="A64" s="24"/>
+      <c r="B64" s="27">
         <v>15</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -6478,19 +6628,19 @@
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="25">
+      <c r="A65" s="22">
         <v>10</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="24"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="37.5">
-      <c r="A66" s="26"/>
-      <c r="B66" s="30" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -6502,8 +6652,8 @@
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="26"/>
-      <c r="B67" s="30" t="s">
+      <c r="A67" s="23"/>
+      <c r="B67" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -6515,8 +6665,8 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="26"/>
-      <c r="B68" s="30" t="s">
+      <c r="A68" s="23"/>
+      <c r="B68" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -6528,8 +6678,8 @@
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="27"/>
-      <c r="B69" s="30" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -6541,18 +6691,18 @@
       <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="93.75">
-      <c r="A70" s="25">
+      <c r="A70" s="22">
         <v>11</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A71" s="26"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="7"/>
       <c r="C71" s="10" t="s">
         <v>3</v>
@@ -6563,7 +6713,7 @@
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A72" s="26"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="7"/>
       <c r="C72" s="10" t="s">
         <v>1</v>
@@ -6574,7 +6724,7 @@
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A73" s="26"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="7"/>
       <c r="C73" s="10" t="s">
         <v>3</v>
@@ -6585,7 +6735,7 @@
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A74" s="27"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="7"/>
       <c r="C74" s="10" t="s">
         <v>3</v>
@@ -6596,19 +6746,19 @@
       <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="25">
+      <c r="A75" s="22">
         <v>12</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="24"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
       <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="26"/>
-      <c r="B76" s="30" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -6620,8 +6770,8 @@
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="26"/>
-      <c r="B77" s="30" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -6633,8 +6783,8 @@
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="26"/>
-      <c r="B78" s="30" t="s">
+      <c r="A78" s="23"/>
+      <c r="B78" s="27" t="s">
         <v>63</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -6646,8 +6796,8 @@
       <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="37.5">
-      <c r="A79" s="27"/>
-      <c r="B79" s="30" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -6659,19 +6809,19 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="37.5">
-      <c r="A80" s="25">
+      <c r="A80" s="22">
         <v>13</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="26"/>
-      <c r="B81" s="30">
+      <c r="A81" s="23"/>
+      <c r="B81" s="27">
         <v>320</v>
       </c>
       <c r="C81" s="10" t="s">
@@ -6683,8 +6833,8 @@
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="26"/>
-      <c r="B82" s="30">
+      <c r="A82" s="23"/>
+      <c r="B82" s="27">
         <v>480</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -6696,8 +6846,8 @@
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="26"/>
-      <c r="B83" s="30">
+      <c r="A83" s="23"/>
+      <c r="B83" s="27">
         <v>560</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -6709,8 +6859,8 @@
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="27"/>
-      <c r="B84" s="30">
+      <c r="A84" s="24"/>
+      <c r="B84" s="27">
         <v>640</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -6722,19 +6872,19 @@
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="25">
+      <c r="A85" s="22">
         <v>14</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="24"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="37.5">
-      <c r="A86" s="26"/>
-      <c r="B86" s="30" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C86" s="10" t="s">
@@ -6746,8 +6896,8 @@
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="37.5">
-      <c r="A87" s="26"/>
-      <c r="B87" s="30" t="s">
+      <c r="A87" s="23"/>
+      <c r="B87" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -6759,8 +6909,8 @@
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="37.5">
-      <c r="A88" s="26"/>
-      <c r="B88" s="30" t="s">
+      <c r="A88" s="23"/>
+      <c r="B88" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -6772,8 +6922,8 @@
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="37.5">
-      <c r="A89" s="27"/>
-      <c r="B89" s="30" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C89" s="10" t="s">
@@ -6785,19 +6935,19 @@
       <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="75">
-      <c r="A90" s="25">
+      <c r="A90" s="22">
         <v>15</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="24"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
       <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="26"/>
-      <c r="B91" s="30">
+      <c r="A91" s="23"/>
+      <c r="B91" s="27">
         <v>500</v>
       </c>
       <c r="C91" s="10" t="s">
@@ -6809,8 +6959,8 @@
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="26"/>
-      <c r="B92" s="30">
+      <c r="A92" s="23"/>
+      <c r="B92" s="27">
         <v>666</v>
       </c>
       <c r="C92" s="10" t="s">
@@ -6822,8 +6972,8 @@
       <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="26"/>
-      <c r="B93" s="30">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27">
         <v>750</v>
       </c>
       <c r="C93" s="10" t="s">
@@ -6835,8 +6985,8 @@
       <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="27"/>
-      <c r="B94" s="30">
+      <c r="A94" s="24"/>
+      <c r="B94" s="27">
         <v>1200</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -6848,19 +6998,19 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="25">
+      <c r="A95" s="22">
         <v>16</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="24"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
       <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="26"/>
-      <c r="B96" s="30" t="s">
+      <c r="A96" s="23"/>
+      <c r="B96" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C96" s="10" t="s">
@@ -6872,8 +7022,8 @@
       <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="37.5">
-      <c r="A97" s="26"/>
-      <c r="B97" s="30" t="s">
+      <c r="A97" s="23"/>
+      <c r="B97" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -6885,8 +7035,8 @@
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" ht="37.5">
-      <c r="A98" s="26"/>
-      <c r="B98" s="30" t="s">
+      <c r="A98" s="23"/>
+      <c r="B98" s="27" t="s">
         <v>118</v>
       </c>
       <c r="C98" s="10" t="s">
@@ -6898,8 +7048,8 @@
       <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="27"/>
-      <c r="B99" s="30" t="s">
+      <c r="A99" s="24"/>
+      <c r="B99" s="27" t="s">
         <v>119</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -6911,19 +7061,19 @@
       <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="168.75">
-      <c r="A100" s="25">
+      <c r="A100" s="22">
         <v>17</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="24"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="26"/>
-      <c r="B101" s="45" t="s">
+      <c r="A101" s="23"/>
+      <c r="B101" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -6935,8 +7085,8 @@
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="26"/>
-      <c r="B102" s="30" t="s">
+      <c r="A102" s="23"/>
+      <c r="B102" s="27" t="s">
         <v>126</v>
       </c>
       <c r="C102" s="10" t="s">
@@ -6948,8 +7098,8 @@
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="26"/>
-      <c r="B103" s="30" t="s">
+      <c r="A103" s="23"/>
+      <c r="B103" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -6961,8 +7111,8 @@
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="27"/>
-      <c r="B104" s="30" t="s">
+      <c r="A104" s="24"/>
+      <c r="B104" s="27" t="s">
         <v>128</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -6974,19 +7124,19 @@
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" ht="56.25">
-      <c r="A105" s="25">
+      <c r="A105" s="22">
         <v>18</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="24"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="26"/>
-      <c r="B106" s="30" t="s">
+      <c r="A106" s="23"/>
+      <c r="B106" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C106" s="10" t="s">
@@ -6998,8 +7148,8 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="26"/>
-      <c r="B107" s="30" t="s">
+      <c r="A107" s="23"/>
+      <c r="B107" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C107" s="10" t="s">
@@ -7011,8 +7161,8 @@
       <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="26"/>
-      <c r="B108" s="30" t="s">
+      <c r="A108" s="23"/>
+      <c r="B108" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C108" s="10" t="s">
@@ -7024,8 +7174,8 @@
       <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="27"/>
-      <c r="B109" s="30" t="s">
+      <c r="A109" s="24"/>
+      <c r="B109" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="10" t="s">
@@ -7037,19 +7187,19 @@
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="37.5">
-      <c r="A110" s="25">
+      <c r="A110" s="22">
         <v>19</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="24"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="37.5">
-      <c r="A111" s="26"/>
-      <c r="B111" s="30" t="s">
+      <c r="A111" s="23"/>
+      <c r="B111" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -7061,8 +7211,8 @@
       <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="37.5">
-      <c r="A112" s="26"/>
-      <c r="B112" s="30" t="s">
+      <c r="A112" s="23"/>
+      <c r="B112" s="27" t="s">
         <v>144</v>
       </c>
       <c r="C112" s="10" t="s">
@@ -7074,8 +7224,8 @@
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="26"/>
-      <c r="B113" s="30" t="s">
+      <c r="A113" s="23"/>
+      <c r="B113" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C113" s="10" t="s">
@@ -7087,8 +7237,8 @@
       <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="37.5">
-      <c r="A114" s="27"/>
-      <c r="B114" s="30" t="s">
+      <c r="A114" s="24"/>
+      <c r="B114" s="27" t="s">
         <v>146</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -7100,19 +7250,19 @@
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="37.5">
-      <c r="A115" s="25">
+      <c r="A115" s="22">
         <v>20</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="26"/>
-      <c r="B116" s="30" t="s">
+      <c r="A116" s="23"/>
+      <c r="B116" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -7124,8 +7274,8 @@
       <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="26"/>
-      <c r="B117" s="30" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -7137,8 +7287,8 @@
       <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="26"/>
-      <c r="B118" s="30" t="s">
+      <c r="A118" s="23"/>
+      <c r="B118" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C118" s="10" t="s">
@@ -7150,8 +7300,8 @@
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" ht="37.5">
-      <c r="A119" s="27"/>
-      <c r="B119" s="30" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C119" s="10" t="s">
@@ -7163,19 +7313,19 @@
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="262.5">
-      <c r="A120" s="25">
+      <c r="A120" s="22">
         <v>21</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
       <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="26"/>
-      <c r="B121" s="30" t="s">
+      <c r="A121" s="23"/>
+      <c r="B121" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C121" s="10" t="s">
@@ -7187,8 +7337,8 @@
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="26"/>
-      <c r="B122" s="30" t="s">
+      <c r="A122" s="23"/>
+      <c r="B122" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C122" s="10" t="s">
@@ -7200,8 +7350,8 @@
       <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="26"/>
-      <c r="B123" s="30" t="s">
+      <c r="A123" s="23"/>
+      <c r="B123" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C123" s="10" t="s">
@@ -7213,8 +7363,8 @@
       <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="27"/>
-      <c r="B124" s="30" t="s">
+      <c r="A124" s="24"/>
+      <c r="B124" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C124" s="10" t="s">
@@ -7226,19 +7376,19 @@
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="25">
+      <c r="A125" s="22">
         <v>22</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="24"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
       <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="26"/>
-      <c r="B126" s="30" t="s">
+      <c r="A126" s="23"/>
+      <c r="B126" s="27" t="s">
         <v>188</v>
       </c>
       <c r="C126" s="10" t="s">
@@ -7250,8 +7400,8 @@
       <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="26"/>
-      <c r="B127" s="30" t="s">
+      <c r="A127" s="23"/>
+      <c r="B127" s="27" t="s">
         <v>189</v>
       </c>
       <c r="C127" s="10" t="s">
@@ -7263,8 +7413,8 @@
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="26"/>
-      <c r="B128" s="30" t="s">
+      <c r="A128" s="23"/>
+      <c r="B128" s="27" t="s">
         <v>190</v>
       </c>
       <c r="C128" s="10" t="s">
@@ -7276,8 +7426,8 @@
       <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="27"/>
-      <c r="B129" s="30" t="s">
+      <c r="A129" s="24"/>
+      <c r="B129" s="27" t="s">
         <v>191</v>
       </c>
       <c r="C129" s="10" t="s">
@@ -7289,19 +7439,19 @@
       <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="25">
+      <c r="A130" s="22">
         <v>23</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C130" s="23"/>
-      <c r="D130" s="24"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="21"/>
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="26"/>
-      <c r="B131" s="30" t="s">
+      <c r="A131" s="23"/>
+      <c r="B131" s="27" t="s">
         <v>196</v>
       </c>
       <c r="C131" s="10" t="s">
@@ -7313,8 +7463,8 @@
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="37.5">
-      <c r="A132" s="26"/>
-      <c r="B132" s="30" t="s">
+      <c r="A132" s="23"/>
+      <c r="B132" s="27" t="s">
         <v>197</v>
       </c>
       <c r="C132" s="10" t="s">
@@ -7326,8 +7476,8 @@
       <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="26"/>
-      <c r="B133" s="30" t="s">
+      <c r="A133" s="23"/>
+      <c r="B133" s="27" t="s">
         <v>198</v>
       </c>
       <c r="C133" s="10" t="s">
@@ -7339,8 +7489,8 @@
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="27"/>
-      <c r="B134" s="30" t="s">
+      <c r="A134" s="24"/>
+      <c r="B134" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -7352,19 +7502,19 @@
       <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" ht="93.75">
-      <c r="A135" s="25">
+      <c r="A135" s="22">
         <v>24</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="24"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="21"/>
       <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="26"/>
-      <c r="B136" s="30" t="s">
+      <c r="A136" s="23"/>
+      <c r="B136" s="27" t="s">
         <v>206</v>
       </c>
       <c r="C136" s="10" t="s">
@@ -7376,8 +7526,8 @@
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="26"/>
-      <c r="B137" s="30" t="s">
+      <c r="A137" s="23"/>
+      <c r="B137" s="27" t="s">
         <v>207</v>
       </c>
       <c r="C137" s="10" t="s">
@@ -7389,8 +7539,8 @@
       <c r="E137" s="7"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="26"/>
-      <c r="B138" s="30" t="s">
+      <c r="A138" s="23"/>
+      <c r="B138" s="27" t="s">
         <v>208</v>
       </c>
       <c r="C138" s="10" t="s">
@@ -7402,8 +7552,8 @@
       <c r="E138" s="7"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="27"/>
-      <c r="B139" s="30" t="s">
+      <c r="A139" s="24"/>
+      <c r="B139" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -7415,19 +7565,19 @@
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="25">
+      <c r="A140" s="22">
         <v>25</v>
       </c>
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="24"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="21"/>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="26"/>
-      <c r="B141" s="30" t="s">
+      <c r="A141" s="23"/>
+      <c r="B141" s="27" t="s">
         <v>216</v>
       </c>
       <c r="C141" s="10" t="s">
@@ -7439,8 +7589,8 @@
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="26"/>
-      <c r="B142" s="30" t="s">
+      <c r="A142" s="23"/>
+      <c r="B142" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C142" s="10" t="s">
@@ -7452,8 +7602,8 @@
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="26"/>
-      <c r="B143" s="30" t="s">
+      <c r="A143" s="23"/>
+      <c r="B143" s="27" t="s">
         <v>218</v>
       </c>
       <c r="C143" s="10" t="s">
@@ -7465,8 +7615,8 @@
       <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="27"/>
-      <c r="B144" s="30" t="s">
+      <c r="A144" s="24"/>
+      <c r="B144" s="27" t="s">
         <v>219</v>
       </c>
       <c r="C144" s="10" t="s">
@@ -7478,19 +7628,19 @@
       <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" ht="37.5">
-      <c r="A145" s="25">
+      <c r="A145" s="22">
         <v>26</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="24"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="26"/>
-      <c r="B146" s="30" t="s">
+      <c r="A146" s="23"/>
+      <c r="B146" s="27" t="s">
         <v>227</v>
       </c>
       <c r="C146" s="10" t="s">
@@ -7502,8 +7652,8 @@
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="26"/>
-      <c r="B147" s="30" t="s">
+      <c r="A147" s="23"/>
+      <c r="B147" s="27" t="s">
         <v>228</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -7515,8 +7665,8 @@
       <c r="E147" s="7"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="26"/>
-      <c r="B148" s="30" t="s">
+      <c r="A148" s="23"/>
+      <c r="B148" s="27" t="s">
         <v>229</v>
       </c>
       <c r="C148" s="10" t="s">
@@ -7528,8 +7678,8 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="27"/>
-      <c r="B149" s="30" t="s">
+      <c r="A149" s="24"/>
+      <c r="B149" s="27" t="s">
         <v>230</v>
       </c>
       <c r="C149" s="10" t="s">
@@ -7541,19 +7691,19 @@
       <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" ht="37.5">
-      <c r="A150" s="25">
+      <c r="A150" s="22">
         <v>27</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="24"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="21"/>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5" ht="37.5">
-      <c r="A151" s="26"/>
-      <c r="B151" s="30" t="s">
+      <c r="A151" s="23"/>
+      <c r="B151" s="27" t="s">
         <v>239</v>
       </c>
       <c r="C151" s="10" t="s">
@@ -7565,8 +7715,8 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" ht="37.5">
-      <c r="A152" s="26"/>
-      <c r="B152" s="30" t="s">
+      <c r="A152" s="23"/>
+      <c r="B152" s="27" t="s">
         <v>240</v>
       </c>
       <c r="C152" s="10" t="s">
@@ -7578,8 +7728,8 @@
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5" ht="37.5">
-      <c r="A153" s="26"/>
-      <c r="B153" s="30" t="s">
+      <c r="A153" s="23"/>
+      <c r="B153" s="27" t="s">
         <v>241</v>
       </c>
       <c r="C153" s="10" t="s">
@@ -7591,8 +7741,8 @@
       <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5" ht="37.5">
-      <c r="A154" s="27"/>
-      <c r="B154" s="30" t="s">
+      <c r="A154" s="24"/>
+      <c r="B154" s="27" t="s">
         <v>242</v>
       </c>
       <c r="C154" s="10" t="s">
@@ -7604,19 +7754,19 @@
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="25">
+      <c r="A155" s="22">
         <v>28</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="24"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="21"/>
       <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5" ht="37.5">
-      <c r="A156" s="26"/>
-      <c r="B156" s="30" t="s">
+      <c r="A156" s="23"/>
+      <c r="B156" s="27" t="s">
         <v>248</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -7628,8 +7778,8 @@
       <c r="E156" s="7"/>
     </row>
     <row r="157" spans="1:5" ht="37.5">
-      <c r="A157" s="26"/>
-      <c r="B157" s="30" t="s">
+      <c r="A157" s="23"/>
+      <c r="B157" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C157" s="10" t="s">
@@ -7641,8 +7791,8 @@
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" ht="37.5">
-      <c r="A158" s="26"/>
-      <c r="B158" s="30" t="s">
+      <c r="A158" s="23"/>
+      <c r="B158" s="27" t="s">
         <v>250</v>
       </c>
       <c r="C158" s="10" t="s">
@@ -7654,8 +7804,8 @@
       <c r="E158" s="7"/>
     </row>
     <row r="159" spans="1:5" ht="37.5">
-      <c r="A159" s="27"/>
-      <c r="B159" s="30" t="s">
+      <c r="A159" s="24"/>
+      <c r="B159" s="27" t="s">
         <v>251</v>
       </c>
       <c r="C159" s="10" t="s">
@@ -7667,19 +7817,19 @@
       <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="25">
+      <c r="A160" s="22">
         <v>29</v>
       </c>
-      <c r="B160" s="22" t="s">
+      <c r="B160" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="C160" s="23"/>
-      <c r="D160" s="24"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="21"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" ht="37.5">
-      <c r="A161" s="26"/>
-      <c r="B161" s="30" t="s">
+      <c r="A161" s="23"/>
+      <c r="B161" s="27" t="s">
         <v>262</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -7691,8 +7841,8 @@
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="26"/>
-      <c r="B162" s="30" t="s">
+      <c r="A162" s="23"/>
+      <c r="B162" s="27" t="s">
         <v>263</v>
       </c>
       <c r="C162" s="10" t="s">
@@ -7704,8 +7854,8 @@
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5" ht="37.5">
-      <c r="A163" s="26"/>
-      <c r="B163" s="30" t="s">
+      <c r="A163" s="23"/>
+      <c r="B163" s="27" t="s">
         <v>264</v>
       </c>
       <c r="C163" s="10" t="s">
@@ -7717,8 +7867,8 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="27"/>
-      <c r="B164" s="30" t="s">
+      <c r="A164" s="24"/>
+      <c r="B164" s="27" t="s">
         <v>265</v>
       </c>
       <c r="C164" s="10" t="s">
@@ -7730,19 +7880,19 @@
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5" ht="112.5">
-      <c r="A165" s="25">
+      <c r="A165" s="22">
         <v>30</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C165" s="23"/>
-      <c r="D165" s="24"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="21"/>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="26"/>
-      <c r="B166" s="30" t="s">
+      <c r="A166" s="23"/>
+      <c r="B166" s="27" t="s">
         <v>275</v>
       </c>
       <c r="C166" s="10" t="s">
@@ -7754,8 +7904,8 @@
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="26"/>
-      <c r="B167" s="30" t="s">
+      <c r="A167" s="23"/>
+      <c r="B167" s="27" t="s">
         <v>276</v>
       </c>
       <c r="C167" s="10" t="s">
@@ -7767,8 +7917,8 @@
       <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="26"/>
-      <c r="B168" s="30" t="s">
+      <c r="A168" s="23"/>
+      <c r="B168" s="27" t="s">
         <v>277</v>
       </c>
       <c r="C168" s="10" t="s">
@@ -7780,8 +7930,8 @@
       <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="27"/>
-      <c r="B169" s="30" t="s">
+      <c r="A169" s="24"/>
+      <c r="B169" s="27" t="s">
         <v>278</v>
       </c>
       <c r="C169" s="10" t="s">
@@ -7793,19 +7943,19 @@
       <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5" ht="150">
-      <c r="A170" s="25">
+      <c r="A170" s="22">
         <v>31</v>
       </c>
-      <c r="B170" s="22" t="s">
+      <c r="B170" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C170" s="23"/>
-      <c r="D170" s="24"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="21"/>
       <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="26"/>
-      <c r="B171" s="30" t="s">
+      <c r="A171" s="23"/>
+      <c r="B171" s="27" t="s">
         <v>295</v>
       </c>
       <c r="C171" s="10" t="s">
@@ -7817,8 +7967,8 @@
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="26"/>
-      <c r="B172" s="30" t="s">
+      <c r="A172" s="23"/>
+      <c r="B172" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C172" s="10" t="s">
@@ -7830,8 +7980,8 @@
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="26"/>
-      <c r="B173" s="30" t="s">
+      <c r="A173" s="23"/>
+      <c r="B173" s="27" t="s">
         <v>297</v>
       </c>
       <c r="C173" s="10" t="s">
@@ -7843,8 +7993,8 @@
       <c r="E173" s="7"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="27"/>
-      <c r="B174" s="30" t="s">
+      <c r="A174" s="24"/>
+      <c r="B174" s="27" t="s">
         <v>298</v>
       </c>
       <c r="C174" s="10" t="s">
@@ -7856,19 +8006,19 @@
       <c r="E174" s="7"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="25">
+      <c r="A175" s="22">
         <v>32</v>
       </c>
-      <c r="B175" s="22" t="s">
+      <c r="B175" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C175" s="23"/>
-      <c r="D175" s="24"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="21"/>
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="26"/>
-      <c r="B176" s="30" t="s">
+      <c r="A176" s="23"/>
+      <c r="B176" s="27" t="s">
         <v>300</v>
       </c>
       <c r="C176" s="10" t="s">
@@ -7880,8 +8030,8 @@
       <c r="E176" s="7"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="26"/>
-      <c r="B177" s="30" t="s">
+      <c r="A177" s="23"/>
+      <c r="B177" s="27" t="s">
         <v>301</v>
       </c>
       <c r="C177" s="10" t="s">
@@ -7893,8 +8043,8 @@
       <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="26"/>
-      <c r="B178" s="30" t="s">
+      <c r="A178" s="23"/>
+      <c r="B178" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C178" s="10" t="s">
@@ -7906,8 +8056,8 @@
       <c r="E178" s="7"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="27"/>
-      <c r="B179" s="30" t="s">
+      <c r="A179" s="24"/>
+      <c r="B179" s="27" t="s">
         <v>303</v>
       </c>
       <c r="C179" s="10" t="s">
@@ -7919,19 +8069,19 @@
       <c r="E179" s="7"/>
     </row>
     <row r="180" spans="1:5" ht="93.75">
-      <c r="A180" s="25">
+      <c r="A180" s="22">
         <v>33</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="C180" s="23"/>
-      <c r="D180" s="24"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="21"/>
       <c r="E180" s="7"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="26"/>
-      <c r="B181" s="30" t="s">
+      <c r="A181" s="23"/>
+      <c r="B181" s="27" t="s">
         <v>310</v>
       </c>
       <c r="C181" s="10" t="s">
@@ -7943,8 +8093,8 @@
       <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="26"/>
-      <c r="B182" s="30" t="s">
+      <c r="A182" s="23"/>
+      <c r="B182" s="27" t="s">
         <v>311</v>
       </c>
       <c r="C182" s="10" t="s">
@@ -7956,8 +8106,8 @@
       <c r="E182" s="7"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="26"/>
-      <c r="B183" s="30" t="s">
+      <c r="A183" s="23"/>
+      <c r="B183" s="27" t="s">
         <v>312</v>
       </c>
       <c r="C183" s="10" t="s">
@@ -7969,8 +8119,8 @@
       <c r="E183" s="7"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="27"/>
-      <c r="B184" s="30" t="s">
+      <c r="A184" s="24"/>
+      <c r="B184" s="27" t="s">
         <v>313</v>
       </c>
       <c r="C184" s="10" t="s">
@@ -7982,19 +8132,19 @@
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5" ht="37.5">
-      <c r="A185" s="25">
+      <c r="A185" s="22">
         <v>34</v>
       </c>
-      <c r="B185" s="22" t="s">
+      <c r="B185" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="23"/>
-      <c r="D185" s="24"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="21"/>
       <c r="E185" s="7"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="26"/>
-      <c r="B186" s="30" t="s">
+      <c r="A186" s="23"/>
+      <c r="B186" s="27" t="s">
         <v>315</v>
       </c>
       <c r="C186" s="10" t="s">
@@ -8006,8 +8156,8 @@
       <c r="E186" s="7"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="26"/>
-      <c r="B187" s="30" t="s">
+      <c r="A187" s="23"/>
+      <c r="B187" s="27" t="s">
         <v>316</v>
       </c>
       <c r="C187" s="10" t="s">
@@ -8019,8 +8169,8 @@
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5" ht="37.5">
-      <c r="A188" s="26"/>
-      <c r="B188" s="30" t="s">
+      <c r="A188" s="23"/>
+      <c r="B188" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C188" s="10" t="s">
@@ -8032,8 +8182,8 @@
       <c r="E188" s="7"/>
     </row>
     <row r="189" spans="1:5" ht="37.5">
-      <c r="A189" s="27"/>
-      <c r="B189" s="30" t="s">
+      <c r="A189" s="24"/>
+      <c r="B189" s="27" t="s">
         <v>318</v>
       </c>
       <c r="C189" s="10" t="s">
@@ -8045,19 +8195,19 @@
       <c r="E189" s="7"/>
     </row>
     <row r="190" spans="1:5" ht="37.5">
-      <c r="A190" s="25">
+      <c r="A190" s="22">
         <v>35</v>
       </c>
-      <c r="B190" s="22" t="s">
+      <c r="B190" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C190" s="23"/>
-      <c r="D190" s="24"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="21"/>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="26"/>
-      <c r="B191" s="30" t="s">
+      <c r="A191" s="23"/>
+      <c r="B191" s="27" t="s">
         <v>322</v>
       </c>
       <c r="C191" s="10" t="s">
@@ -8069,8 +8219,8 @@
       <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="26"/>
-      <c r="B192" s="30" t="s">
+      <c r="A192" s="23"/>
+      <c r="B192" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C192" s="10" t="s">
@@ -8082,8 +8232,8 @@
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="26"/>
-      <c r="B193" s="30" t="s">
+      <c r="A193" s="23"/>
+      <c r="B193" s="27" t="s">
         <v>324</v>
       </c>
       <c r="C193" s="10" t="s">
@@ -8095,8 +8245,8 @@
       <c r="E193" s="7"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="27"/>
-      <c r="B194" s="30" t="s">
+      <c r="A194" s="24"/>
+      <c r="B194" s="27" t="s">
         <v>325</v>
       </c>
       <c r="C194" s="10" t="s">
@@ -8108,19 +8258,19 @@
       <c r="E194" s="7"/>
     </row>
     <row r="195" spans="1:5" ht="281.25">
-      <c r="A195" s="25">
+      <c r="A195" s="22">
         <v>36</v>
       </c>
-      <c r="B195" s="22" t="s">
+      <c r="B195" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C195" s="23"/>
-      <c r="D195" s="24"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="21"/>
       <c r="E195" s="7"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="26"/>
-      <c r="B196" s="30" t="s">
+      <c r="A196" s="23"/>
+      <c r="B196" s="27" t="s">
         <v>330</v>
       </c>
       <c r="C196" s="10" t="s">
@@ -8132,8 +8282,8 @@
       <c r="E196" s="7"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="26"/>
-      <c r="B197" s="30" t="s">
+      <c r="A197" s="23"/>
+      <c r="B197" s="27" t="s">
         <v>331</v>
       </c>
       <c r="C197" s="10" t="s">
@@ -8145,8 +8295,8 @@
       <c r="E197" s="7"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="26"/>
-      <c r="B198" s="30" t="s">
+      <c r="A198" s="23"/>
+      <c r="B198" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C198" s="10" t="s">
@@ -8158,8 +8308,8 @@
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="27"/>
-      <c r="B199" s="30" t="s">
+      <c r="A199" s="24"/>
+      <c r="B199" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C199" s="10" t="s">
@@ -8171,19 +8321,19 @@
       <c r="E199" s="7"/>
     </row>
     <row r="200" spans="1:5" ht="37.5">
-      <c r="A200" s="25">
+      <c r="A200" s="22">
         <v>37</v>
       </c>
-      <c r="B200" s="22" t="s">
+      <c r="B200" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C200" s="23"/>
-      <c r="D200" s="24"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="21"/>
       <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="26"/>
-      <c r="B201" s="30" t="s">
+      <c r="A201" s="23"/>
+      <c r="B201" s="27" t="s">
         <v>347</v>
       </c>
       <c r="C201" s="10" t="s">
@@ -8195,8 +8345,8 @@
       <c r="E201" s="7"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="26"/>
-      <c r="B202" s="30" t="s">
+      <c r="A202" s="23"/>
+      <c r="B202" s="27" t="s">
         <v>348</v>
       </c>
       <c r="C202" s="10" t="s">
@@ -8208,8 +8358,8 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="26"/>
-      <c r="B203" s="30" t="s">
+      <c r="A203" s="23"/>
+      <c r="B203" s="27" t="s">
         <v>349</v>
       </c>
       <c r="C203" s="10" t="s">
@@ -8221,8 +8371,8 @@
       <c r="E203" s="7"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="27"/>
-      <c r="B204" s="30" t="s">
+      <c r="A204" s="24"/>
+      <c r="B204" s="27" t="s">
         <v>350</v>
       </c>
       <c r="C204" s="10" t="s">
@@ -8234,19 +8384,19 @@
       <c r="E204" s="7"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="25">
+      <c r="A205" s="22">
         <v>38</v>
       </c>
-      <c r="B205" s="22" t="s">
+      <c r="B205" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="23"/>
-      <c r="D205" s="24"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="21"/>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="26"/>
-      <c r="B206" s="30" t="s">
+      <c r="A206" s="23"/>
+      <c r="B206" s="27" t="s">
         <v>355</v>
       </c>
       <c r="C206" s="10" t="s">
@@ -8258,8 +8408,8 @@
       <c r="E206" s="7"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="26"/>
-      <c r="B207" s="30" t="s">
+      <c r="A207" s="23"/>
+      <c r="B207" s="27" t="s">
         <v>356</v>
       </c>
       <c r="C207" s="10" t="s">
@@ -8271,8 +8421,8 @@
       <c r="E207" s="7"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="26"/>
-      <c r="B208" s="30" t="s">
+      <c r="A208" s="23"/>
+      <c r="B208" s="27" t="s">
         <v>357</v>
       </c>
       <c r="C208" s="10" t="s">
@@ -8284,8 +8434,8 @@
       <c r="E208" s="7"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="27"/>
-      <c r="B209" s="30" t="s">
+      <c r="A209" s="24"/>
+      <c r="B209" s="27" t="s">
         <v>358</v>
       </c>
       <c r="C209" s="10" t="s">
@@ -8297,19 +8447,19 @@
       <c r="E209" s="7"/>
     </row>
     <row r="210" spans="1:5" ht="37.5">
-      <c r="A210" s="25">
+      <c r="A210" s="22">
         <v>39</v>
       </c>
-      <c r="B210" s="22" t="s">
+      <c r="B210" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C210" s="23"/>
-      <c r="D210" s="24"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="21"/>
       <c r="E210" s="7"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="26"/>
-      <c r="B211" s="30" t="s">
+      <c r="A211" s="23"/>
+      <c r="B211" s="27" t="s">
         <v>366</v>
       </c>
       <c r="C211" s="10" t="s">
@@ -8321,8 +8471,8 @@
       <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="26"/>
-      <c r="B212" s="30" t="s">
+      <c r="A212" s="23"/>
+      <c r="B212" s="27" t="s">
         <v>367</v>
       </c>
       <c r="C212" s="10" t="s">
@@ -8334,8 +8484,8 @@
       <c r="E212" s="7"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="26"/>
-      <c r="B213" s="30" t="s">
+      <c r="A213" s="23"/>
+      <c r="B213" s="27" t="s">
         <v>368</v>
       </c>
       <c r="C213" s="10" t="s">
@@ -8347,8 +8497,8 @@
       <c r="E213" s="7"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="27"/>
-      <c r="B214" s="30" t="s">
+      <c r="A214" s="24"/>
+      <c r="B214" s="27" t="s">
         <v>369</v>
       </c>
       <c r="C214" s="10" t="s">
@@ -8360,19 +8510,19 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" ht="37.5">
-      <c r="A215" s="25">
+      <c r="A215" s="22">
         <v>40</v>
       </c>
-      <c r="B215" s="22" t="s">
+      <c r="B215" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C215" s="23"/>
-      <c r="D215" s="24"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="21"/>
       <c r="E215" s="7"/>
     </row>
     <row r="216" spans="1:5" ht="37.5">
-      <c r="A216" s="26"/>
-      <c r="B216" s="30" t="s">
+      <c r="A216" s="23"/>
+      <c r="B216" s="27" t="s">
         <v>377</v>
       </c>
       <c r="C216" s="10" t="s">
@@ -8384,8 +8534,8 @@
       <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5" ht="37.5">
-      <c r="A217" s="26"/>
-      <c r="B217" s="30" t="s">
+      <c r="A217" s="23"/>
+      <c r="B217" s="27" t="s">
         <v>378</v>
       </c>
       <c r="C217" s="10" t="s">
@@ -8397,8 +8547,8 @@
       <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="26"/>
-      <c r="B218" s="30" t="s">
+      <c r="A218" s="23"/>
+      <c r="B218" s="27" t="s">
         <v>379</v>
       </c>
       <c r="C218" s="10" t="s">
@@ -8410,8 +8560,8 @@
       <c r="E218" s="7"/>
     </row>
     <row r="219" spans="1:5" ht="37.5">
-      <c r="A219" s="27"/>
-      <c r="B219" s="30" t="s">
+      <c r="A219" s="24"/>
+      <c r="B219" s="27" t="s">
         <v>380</v>
       </c>
       <c r="C219" s="10" t="s">
@@ -8423,19 +8573,19 @@
       <c r="E219" s="7"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="25">
+      <c r="A220" s="22">
         <v>41</v>
       </c>
-      <c r="B220" s="22" t="s">
+      <c r="B220" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C220" s="23"/>
-      <c r="D220" s="24"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="21"/>
       <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5" ht="37.5">
-      <c r="A221" s="26"/>
-      <c r="B221" s="30" t="s">
+      <c r="A221" s="23"/>
+      <c r="B221" s="27" t="s">
         <v>396</v>
       </c>
       <c r="C221" s="10" t="s">
@@ -8447,8 +8597,8 @@
       <c r="E221" s="7"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="26"/>
-      <c r="B222" s="30" t="s">
+      <c r="A222" s="23"/>
+      <c r="B222" s="27" t="s">
         <v>397</v>
       </c>
       <c r="C222" s="10" t="s">
@@ -8460,8 +8610,8 @@
       <c r="E222" s="7"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="26"/>
-      <c r="B223" s="30" t="s">
+      <c r="A223" s="23"/>
+      <c r="B223" s="27" t="s">
         <v>398</v>
       </c>
       <c r="C223" s="10" t="s">
@@ -8473,8 +8623,8 @@
       <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="27"/>
-      <c r="B224" s="30" t="s">
+      <c r="A224" s="24"/>
+      <c r="B224" s="27" t="s">
         <v>399</v>
       </c>
       <c r="C224" s="10" t="s">
@@ -8486,19 +8636,19 @@
       <c r="E224" s="7"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="25">
+      <c r="A225" s="22">
         <v>42</v>
       </c>
-      <c r="B225" s="22" t="s">
+      <c r="B225" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C225" s="23"/>
-      <c r="D225" s="24"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="21"/>
       <c r="E225" s="7"/>
     </row>
     <row r="226" spans="1:5" ht="37.5">
-      <c r="A226" s="26"/>
-      <c r="B226" s="30" t="s">
+      <c r="A226" s="23"/>
+      <c r="B226" s="27" t="s">
         <v>404</v>
       </c>
       <c r="C226" s="10" t="s">
@@ -8510,8 +8660,8 @@
       <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:5" ht="37.5">
-      <c r="A227" s="26"/>
-      <c r="B227" s="30" t="s">
+      <c r="A227" s="23"/>
+      <c r="B227" s="27" t="s">
         <v>405</v>
       </c>
       <c r="C227" s="10" t="s">
@@ -8523,8 +8673,8 @@
       <c r="E227" s="7"/>
     </row>
     <row r="228" spans="1:5" ht="37.5">
-      <c r="A228" s="26"/>
-      <c r="B228" s="30" t="s">
+      <c r="A228" s="23"/>
+      <c r="B228" s="27" t="s">
         <v>406</v>
       </c>
       <c r="C228" s="10" t="s">
@@ -8536,8 +8686,8 @@
       <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:5" ht="37.5">
-      <c r="A229" s="27"/>
-      <c r="B229" s="30" t="s">
+      <c r="A229" s="24"/>
+      <c r="B229" s="27" t="s">
         <v>407</v>
       </c>
       <c r="C229" s="10" t="s">
@@ -8549,19 +8699,19 @@
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" ht="37.5">
-      <c r="A230" s="25">
+      <c r="A230" s="22">
         <v>43</v>
       </c>
-      <c r="B230" s="22" t="s">
+      <c r="B230" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="C230" s="23"/>
-      <c r="D230" s="24"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="21"/>
       <c r="E230" s="7"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="26"/>
-      <c r="B231" s="30" t="s">
+      <c r="A231" s="23"/>
+      <c r="B231" s="27" t="s">
         <v>413</v>
       </c>
       <c r="C231" s="10" t="s">
@@ -8573,8 +8723,8 @@
       <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="26"/>
-      <c r="B232" s="30" t="s">
+      <c r="A232" s="23"/>
+      <c r="B232" s="27" t="s">
         <v>414</v>
       </c>
       <c r="C232" s="10" t="s">
@@ -8586,8 +8736,8 @@
       <c r="E232" s="7"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="26"/>
-      <c r="B233" s="30" t="s">
+      <c r="A233" s="23"/>
+      <c r="B233" s="27" t="s">
         <v>415</v>
       </c>
       <c r="C233" s="10" t="s">
@@ -8599,8 +8749,8 @@
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="27"/>
-      <c r="B234" s="30" t="s">
+      <c r="A234" s="24"/>
+      <c r="B234" s="27" t="s">
         <v>416</v>
       </c>
       <c r="C234" s="10" t="s">
@@ -8612,19 +8762,19 @@
       <c r="E234" s="7"/>
     </row>
     <row r="235" spans="1:5" ht="206.25">
-      <c r="A235" s="25">
+      <c r="A235" s="22">
         <v>44</v>
       </c>
-      <c r="B235" s="22" t="s">
+      <c r="B235" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C235" s="23"/>
-      <c r="D235" s="24"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="21"/>
       <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="26"/>
-      <c r="B236" s="30" t="s">
+      <c r="A236" s="23"/>
+      <c r="B236" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C236" s="10" t="s">
@@ -8636,8 +8786,8 @@
       <c r="E236" s="7"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="26"/>
-      <c r="B237" s="30" t="s">
+      <c r="A237" s="23"/>
+      <c r="B237" s="27" t="s">
         <v>420</v>
       </c>
       <c r="C237" s="10" t="s">
@@ -8649,8 +8799,8 @@
       <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="26"/>
-      <c r="B238" s="30" t="s">
+      <c r="A238" s="23"/>
+      <c r="B238" s="27" t="s">
         <v>421</v>
       </c>
       <c r="C238" s="10" t="s">
@@ -8662,8 +8812,8 @@
       <c r="E238" s="7"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="27"/>
-      <c r="B239" s="30" t="s">
+      <c r="A239" s="24"/>
+      <c r="B239" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C239" s="10" t="s">
@@ -8675,19 +8825,19 @@
       <c r="E239" s="7"/>
     </row>
     <row r="240" spans="1:5" ht="112.5">
-      <c r="A240" s="25">
+      <c r="A240" s="22">
         <v>45</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="C240" s="23"/>
-      <c r="D240" s="24"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="21"/>
       <c r="E240" s="7"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="26"/>
-      <c r="B241" s="30" t="s">
+      <c r="A241" s="23"/>
+      <c r="B241" s="27" t="s">
         <v>423</v>
       </c>
       <c r="C241" s="10" t="s">
@@ -8699,8 +8849,8 @@
       <c r="E241" s="7"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="26"/>
-      <c r="B242" s="30" t="s">
+      <c r="A242" s="23"/>
+      <c r="B242" s="27" t="s">
         <v>424</v>
       </c>
       <c r="C242" s="10" t="s">
@@ -8712,8 +8862,8 @@
       <c r="E242" s="7"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="26"/>
-      <c r="B243" s="30" t="s">
+      <c r="A243" s="23"/>
+      <c r="B243" s="27" t="s">
         <v>425</v>
       </c>
       <c r="C243" s="10" t="s">
@@ -8725,8 +8875,8 @@
       <c r="E243" s="7"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="27"/>
-      <c r="B244" s="30" t="s">
+      <c r="A244" s="24"/>
+      <c r="B244" s="27" t="s">
         <v>426</v>
       </c>
       <c r="C244" s="10" t="s">
@@ -8738,19 +8888,19 @@
       <c r="E244" s="7"/>
     </row>
     <row r="245" spans="1:5" ht="37.5">
-      <c r="A245" s="25">
+      <c r="A245" s="22">
         <v>46</v>
       </c>
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="C245" s="23"/>
-      <c r="D245" s="24"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="21"/>
       <c r="E245" s="7"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="26"/>
-      <c r="B246" s="30" t="s">
+      <c r="A246" s="23"/>
+      <c r="B246" s="27" t="s">
         <v>429</v>
       </c>
       <c r="C246" s="10" t="s">
@@ -8762,8 +8912,8 @@
       <c r="E246" s="7"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="26"/>
-      <c r="B247" s="30" t="s">
+      <c r="A247" s="23"/>
+      <c r="B247" s="27" t="s">
         <v>430</v>
       </c>
       <c r="C247" s="10" t="s">
@@ -8775,8 +8925,8 @@
       <c r="E247" s="7"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="26"/>
-      <c r="B248" s="30" t="s">
+      <c r="A248" s="23"/>
+      <c r="B248" s="27" t="s">
         <v>431</v>
       </c>
       <c r="C248" s="10" t="s">
@@ -8788,8 +8938,8 @@
       <c r="E248" s="7"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="27"/>
-      <c r="B249" s="30" t="s">
+      <c r="A249" s="24"/>
+      <c r="B249" s="27" t="s">
         <v>432</v>
       </c>
       <c r="C249" s="10" t="s">
@@ -8801,19 +8951,19 @@
       <c r="E249" s="7"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="25">
+      <c r="A250" s="22">
         <v>47</v>
       </c>
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="C250" s="23"/>
-      <c r="D250" s="24"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="21"/>
       <c r="E250" s="7"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="26"/>
-      <c r="B251" s="30" t="s">
+      <c r="A251" s="23"/>
+      <c r="B251" s="27" t="s">
         <v>434</v>
       </c>
       <c r="C251" s="10" t="s">
@@ -8825,8 +8975,8 @@
       <c r="E251" s="7"/>
     </row>
     <row r="252" spans="1:5" ht="37.5">
-      <c r="A252" s="26"/>
-      <c r="B252" s="30" t="s">
+      <c r="A252" s="23"/>
+      <c r="B252" s="27" t="s">
         <v>435</v>
       </c>
       <c r="C252" s="10" t="s">
@@ -8838,8 +8988,8 @@
       <c r="E252" s="7"/>
     </row>
     <row r="253" spans="1:5" ht="37.5">
-      <c r="A253" s="26"/>
-      <c r="B253" s="30" t="s">
+      <c r="A253" s="23"/>
+      <c r="B253" s="27" t="s">
         <v>436</v>
       </c>
       <c r="C253" s="10" t="s">
@@ -8851,8 +9001,8 @@
       <c r="E253" s="7"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="27"/>
-      <c r="B254" s="30" t="s">
+      <c r="A254" s="24"/>
+      <c r="B254" s="27" t="s">
         <v>437</v>
       </c>
       <c r="C254" s="10" t="s">
@@ -8864,19 +9014,19 @@
       <c r="E254" s="7"/>
     </row>
     <row r="255" spans="1:5" ht="281.25">
-      <c r="A255" s="25">
+      <c r="A255" s="22">
         <v>48</v>
       </c>
-      <c r="B255" s="22" t="s">
+      <c r="B255" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C255" s="23"/>
-      <c r="D255" s="24"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="21"/>
       <c r="E255" s="7"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="26"/>
-      <c r="B256" s="30">
+      <c r="A256" s="23"/>
+      <c r="B256" s="27">
         <v>17.5</v>
       </c>
       <c r="C256" s="10" t="s">
@@ -8888,8 +9038,8 @@
       <c r="E256" s="7"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="26"/>
-      <c r="B257" s="30">
+      <c r="A257" s="23"/>
+      <c r="B257" s="27">
         <v>25</v>
       </c>
       <c r="C257" s="10" t="s">
@@ -8901,8 +9051,8 @@
       <c r="E257" s="7"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="26"/>
-      <c r="B258" s="30">
+      <c r="A258" s="23"/>
+      <c r="B258" s="27">
         <v>30</v>
       </c>
       <c r="C258" s="10" t="s">
@@ -8914,8 +9064,8 @@
       <c r="E258" s="7"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="27"/>
-      <c r="B259" s="30">
+      <c r="A259" s="24"/>
+      <c r="B259" s="27">
         <v>32.5</v>
       </c>
       <c r="C259" s="10" t="s">
@@ -8927,19 +9077,19 @@
       <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" ht="225">
-      <c r="A260" s="25">
+      <c r="A260" s="22">
         <v>49</v>
       </c>
-      <c r="B260" s="22" t="s">
+      <c r="B260" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="C260" s="23"/>
-      <c r="D260" s="24"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="21"/>
       <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="26"/>
-      <c r="B261" s="30" t="s">
+      <c r="A261" s="23"/>
+      <c r="B261" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C261" s="10" t="s">
@@ -8951,8 +9101,8 @@
       <c r="E261" s="7"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="26"/>
-      <c r="B262" s="30" t="s">
+      <c r="A262" s="23"/>
+      <c r="B262" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C262" s="10" t="s">
@@ -8964,8 +9114,8 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="26"/>
-      <c r="B263" s="30" t="s">
+      <c r="A263" s="23"/>
+      <c r="B263" s="27" t="s">
         <v>439</v>
       </c>
       <c r="C263" s="10" t="s">
@@ -8977,8 +9127,8 @@
       <c r="E263" s="7"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="27"/>
-      <c r="B264" s="30" t="s">
+      <c r="A264" s="24"/>
+      <c r="B264" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C264" s="10" t="s">
@@ -9023,7 +9173,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -9042,9 +9192,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="B2:D49"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -9168,9 +9320,69 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
+    <row r="49" spans="4:11">
       <c r="D49" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="K52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="K53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="K54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="K55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="K58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11">
+      <c r="K59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11">
+      <c r="K60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11">
+      <c r="K61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11">
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11">
+      <c r="K63" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -9183,10 +9395,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B2:D52"/>
+  <dimension ref="B2:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9339,6 +9551,51 @@
     <row r="52" spans="3:4">
       <c r="D52" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="D60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="D62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="D63" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -9375,7 +9632,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
@@ -9704,9 +9961,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -9741,7 +9996,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="41" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9796,7 +10051,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
